--- a/file/TGT-412-Resort.xlsx
+++ b/file/TGT-412-Resort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Taoyuan/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82D6DB-F583-0B49-A234-CAB7BBCEE3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3196B8-51D3-A04B-AC55-6F5CD3D951A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22700" yWindow="8540" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="27280" yWindow="8960" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>桃園縣桃園市大溪區日新路 166 號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市大溪區日新路 166 號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,6 +195,10 @@
   </si>
   <si>
     <t>886-3-420-2122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笠復威斯汀度假酒店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,8 +234,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF4E4E4E"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -608,7 +610,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -666,10 +668,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -678,16 +680,16 @@
         <v>6500</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16">
@@ -698,10 +700,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -710,16 +712,16 @@
         <v>5022</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16">
@@ -733,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -742,16 +744,16 @@
         <v>4456</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16">
@@ -777,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -794,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>3.5</v>
@@ -806,16 +808,16 @@
         <v>2595</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
